--- a/src/WindowsApplication/WindowsApplication/bin/Debug/GJR5.xlsx
+++ b/src/WindowsApplication/WindowsApplication/bin/Debug/GJR5.xlsx
@@ -1,17 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -221,14 +217,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -565,7 +561,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -3035,56 +3031,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>